--- a/medicine/Psychotrope/Gambrinus/Gambrinus.xlsx
+++ b/medicine/Psychotrope/Gambrinus/Gambrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gambrinus (Jan primus), roi mythique de Flandre et Brabant, est un symbole des amateurs de bière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gambrinus (Jan primus), roi mythique de Flandre et Brabant, est un symbole des amateurs de bière.
 Dans les écritures historiques, il est souvent identifié comme Jean Ier de Brabant, duc de Brabant. Il serait le créateur du fameux faro bruxellois et du lambic pur. On identifie aussi parfois Gambrinus à Jean sans Peur, duc de Bourgogne et comte de Flandre entre autres titres, ou encore à Jean IV de Brabant de la maison de Bourgogne. Gambrinus était aussi le nom d'un échanson de Charlemagne.
-Il représente la bonne humeur et la joie de vivre typique des zythophiles (amateurs de bière), en Belgique et dans les Flandres, mais aussi ailleurs en Europe. Dans plusieurs pays il y a une longue tradition de folklore avec des poèmes sur le roi Gambrinus/Gambrivius et la bière. Le poète allemand Burkard Waldis (de) mentionne un certain Gambrivius qui aurait appris l'art de brasser de la déesse Isis, symbole de la fertilité. Une image de Gambrivius (1543) par Peter Flötner avec le poème de Burkard Waldis se trouve au British Museum[2]. En Angleterre, on le chante au XVIIe siècle comme roi britannique, vivant 1700 ans av. J.-C.[3]. La tradition arrive tard dans le sud de la France, où plusieurs établissements Gambrinus sont ouverts au milieu du XIXe siècle [4].
+Il représente la bonne humeur et la joie de vivre typique des zythophiles (amateurs de bière), en Belgique et dans les Flandres, mais aussi ailleurs en Europe. Dans plusieurs pays il y a une longue tradition de folklore avec des poèmes sur le roi Gambrinus/Gambrivius et la bière. Le poète allemand Burkard Waldis (de) mentionne un certain Gambrivius qui aurait appris l'art de brasser de la déesse Isis, symbole de la fertilité. Une image de Gambrivius (1543) par Peter Flötner avec le poème de Burkard Waldis se trouve au British Museum. En Angleterre, on le chante au XVIIe siècle comme roi britannique, vivant 1700 ans av. J.-C.. La tradition arrive tard dans le sud de la France, où plusieurs établissements Gambrinus sont ouverts au milieu du XIXe siècle .
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>La légende de Gambrinus en Flandre française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gambrinus habitait à Fresnes-sur-Escaut, une petite ville des Flandres françaises, où il exerçait le métier de carillonneur. Il était amoureux de Flandrine, la fille de son maître, qui était verrier ; mais Flandrine n’était pas amoureuse de lui. Il se mit à trembler, au point de ne plus pouvoir jouer, et les habitants de Fresnes le mirent en prison pour tapage nocturne après l’avoir insulté et roué de coups. Quand il fut libéré un mois plus tard, il voulut se suicider, mais le diable lui proposa d'oublier Flandrine en échange de son âme qu'il viendrait chercher trente ans plus tard. Gambrinus accepta le pacte. Il s'enrichit par des jeux d’argent, mais il n’avait toujours pas oublié la fille du verrier.
 Il rencontra de nouveau le diable, qui lui donna des graines pour planter du houblon et lui montra comment fabriquer un carillon auquel nul ne pourrait résister. Gambrinus organisa alors une fête où tous étaient conviés. Les habitants de Fresnes trouvèrent la bière fort amère. Gambrinus commença alors à jouer du carillon et tout le monde dansa jusqu'à épuisement. La vengeance de Gambrinus était accomplie. Mais les habitants se précipitèrent sur la bière pour se rafraîchir et se rendirent compte que plus on en buvait, plus elle était douce.
@@ -547,7 +561,9 @@
           <t>Géant de parade</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gambrinus est devenu le géant de plusieurs villes du nord de la France. Successivement géant de Lille, Armentières, Steenvoorde et Béthune.
 </t>
@@ -578,20 +594,22 @@
           <t>La bière Gambrinus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gambrinus est aussi le nom de bars, de brasseries, de restaurants ainsi que de marques de bière répandues :
 Bières
 Brasserie Amos: brasserie fondée à Metz en 1868 dont le logo reprend l'image de Gambrinus;
-Rosé de Gambrinus de la brasserie Cantillon en Belgique[5]
+Rosé de Gambrinus de la brasserie Cantillon en Belgique
 Bière Battin Gambrinus de la Brasserie Nationale à Bascharage au G.D. de Luxembourg
 Gambrinus de la brasserie Gambrinus à Pilsen en République tchèque
 Brasseries
 Gambrinus, brasserie à Bahia Blanca en Argentine
 The Gambrinus Company à San Antonio dans le Texas aux États-Unis
 Gambrinus Brewing Company à Oshkosh dans le Wisconsin aux États-Unis
-Gambrinus, brasserie à Trois-Rivières au Québec (Canada)[6]
-Gambrinus, brasserie à Bucarest en Roumanie[7]
+Gambrinus, brasserie à Trois-Rivières au Québec (Canada)
+Gambrinus, brasserie à Bucarest en Roumanie
 France
 Ô Gambrinus à Albi
 Le Grand Gambrinus, brasserie-bar à Alès
